--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/WYOMING_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/WYOMING_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C12">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C28">
@@ -870,7 +870,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C38">
@@ -896,7 +896,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C40">
@@ -1023,7 +1023,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C60">
@@ -1241,7 +1241,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C65">
@@ -1332,7 +1332,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1350,7 +1350,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C73">
@@ -1402,7 +1402,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C77">
@@ -1524,7 +1524,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C86">
@@ -1537,7 +1537,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C87">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1594,7 +1594,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C91">
@@ -1607,7 +1607,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C92">
@@ -1620,7 +1620,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C93">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C99">
@@ -1742,7 +1742,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C102">
@@ -1768,7 +1768,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C104">
@@ -1812,7 +1812,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C107">
@@ -1877,7 +1877,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C112">
@@ -1929,7 +1929,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C116">
@@ -1981,7 +1981,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C120">
@@ -2007,7 +2007,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C122">
@@ -2020,7 +2020,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C123">
@@ -2046,7 +2046,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C125">
@@ -2111,7 +2111,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C130">
@@ -2446,7 +2446,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C155">
@@ -2503,7 +2503,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C159">
@@ -2542,7 +2542,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C162">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C167">
@@ -2643,7 +2643,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C169">
@@ -2656,7 +2656,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C170">
@@ -2799,7 +2799,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C181">
@@ -2856,7 +2856,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C185">
@@ -2960,7 +2960,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C193">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C200">
@@ -3082,7 +3082,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C202">
@@ -3095,7 +3095,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3191,7 +3191,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C210">
@@ -3217,7 +3217,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C212">
@@ -3230,7 +3230,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C213">
@@ -3619,7 +3619,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C241">
@@ -4071,7 +4071,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C275">
@@ -4097,7 +4097,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C277">
@@ -4170,41 +4170,6 @@
       </c>
       <c r="D282">
         <v>1</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/WYOMING_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/WYOMING_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Coapilla</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Carichí</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>López</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Matachí</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1143,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1156,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Xalatlaco</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>El Arenal</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1779,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1836,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1849,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1862,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -1875,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -1888,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1901,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -1914,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1927,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1940,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1953,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1966,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1979,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1992,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -2005,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2018,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Sebastián Del Oeste</t>
@@ -2031,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -2044,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2057,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tenamaxtlán</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2166,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -2179,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -2192,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -2205,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -2218,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -2231,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -2244,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2257,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2270,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2283,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -2296,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2444,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -2457,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2488,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -2501,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Amatlán De Cañas</t>
@@ -2514,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -2527,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -2540,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -2553,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -2566,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2597,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2628,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Magdalena Teitipac</t>
@@ -2641,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -2654,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2667,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -2680,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Miguel Quetzaltepec</t>
@@ -2693,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -2706,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Santa Ana Zegache</t>
@@ -2719,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -2732,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Santiago Amoltepec</t>
@@ -2745,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -2758,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Santiago Lachiguiri</t>
@@ -2771,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2784,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -2797,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -2810,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2841,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Coyomeapan</t>
@@ -2854,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -2867,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -2880,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -2893,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -2906,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -2919,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2932,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2945,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2958,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -2971,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2984,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -2997,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3010,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -3023,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Zongozotla</t>
@@ -3036,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3067,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -3080,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -3093,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -3106,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3137,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -3150,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -3163,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3176,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3189,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -3202,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Tampamolón Corona</t>
@@ -3215,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -3228,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3241,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3272,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -3285,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -3298,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -3311,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -3324,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -3337,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -3350,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3381,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Baviácora</t>
@@ -3394,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -3407,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3420,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -3433,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -3446,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3477,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3508,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -3521,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -3534,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3565,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -3578,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3591,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Cuaxomulco</t>
@@ -3604,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3617,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -3630,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -3643,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -3656,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3669,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -3682,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -3695,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -3708,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -3721,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -3734,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3765,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -3778,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -3791,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -3804,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -3817,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -3830,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -3843,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -3856,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -3869,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -3882,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3895,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -3908,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3939,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Atolinga</t>
@@ -3952,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -3965,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -3978,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -3991,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4004,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -4017,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -4030,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -4043,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -4056,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -4069,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -4082,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -4095,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4108,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -4121,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4134,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -4147,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Total</t>
